--- a/techniqo/data_new_ticker/J&KBANK.xlsx
+++ b/techniqo/data_new_ticker/J&KBANK.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1414"/>
+  <dimension ref="A1:G1416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1399" workbookViewId="0">
       <selection activeCell="G1408" sqref="G1408:G1412"/>
@@ -49909,6 +49909,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>1442747</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>4882118</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
